--- a/results/Known Number/results_known_number.xlsx
+++ b/results/Known Number/results_known_number.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\desk_others\contribute\AE unknown number separation SPL\Supplemental Materials\code\results\Known Number\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\desk_others\contribute\AE unknown number separation SPL\Supplemental Materials\results\Known Number\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0C5305E-087F-4052-8A87-F21F6B009632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{326FF829-577B-4817-93D9-BF47096A5AFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B3211CC7-A965-4961-BE1A-76E847C96973}"/>
+    <workbookView xWindow="3444" yWindow="1404" windowWidth="23040" windowHeight="11628" xr2:uid="{B3211CC7-A965-4961-BE1A-76E847C96973}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="35">
   <si>
     <t>MSE</t>
   </si>
@@ -79,13 +79,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>model_15_2_6_lr1e-3_ep200_RTX6000_20230616</t>
-  </si>
-  <si>
-    <t>model_14_2_6_lr1e-3_ep200_bs6_20230616</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>model_12_2_1_1e-3_ep100_ur200_GTX1080_20230619</t>
   </si>
   <si>
@@ -110,9 +103,6 @@
     <t>model_13_2_1_lr1e-3_ep100_ur200_GTX2080Ti7_20230614</t>
   </si>
   <si>
-    <t>model_14_1_6_lr1e-3_ep200_bs6_GTX2080Ti7_20230612</t>
-  </si>
-  <si>
     <t>model_10_3_1_lr1e-3_ep100_ur200_GTX1080Ti_20230202</t>
   </si>
   <si>
@@ -123,10 +113,6 @@
   </si>
   <si>
     <t>model_8_3_1_1e-3_ep50_GTX2080Ti6_20221220_ur200</t>
-  </si>
-  <si>
-    <t>model_15_1_6_lr1e-3_ep200_bs6_RTX3090_20230624</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>model_13_3_1_lr1e-3_ep100_ur200_GTX2080Ti7_RTX6000_20230622  Z_4-6_GTX2080Ti7 Z7_RTX6000</t>
@@ -144,6 +130,25 @@
   <si>
     <t>model_21_5_10_lr1e-4_ep800_GTX1080_20230711</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>model_15_2_6_lr1e-3_ep200_linear_gln_RTX6000_20230616</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>model_14_1_6_lr1e-3_ep200_linear_gln_GTX2080Ti7_20230612</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>model_14_2_6_lr1e-3_ep200_linear_gln_20230616</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>model_15_1_6_lr1e-3_ep200_linear_gln_RTX3090_20230624</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>model_15_2_6_lr1e-3_ep200_tanh_noNL_RTX3090_20230916</t>
   </si>
 </sst>
 </file>
@@ -1182,10 +1187,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68E766E7-25BF-4DC3-8B53-27B0AF24AE7A}">
-  <dimension ref="A1:CW14"/>
+  <dimension ref="A1:DB14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="BP1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BZ14" sqref="BZ14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1214,11 +1219,12 @@
     <col min="78" max="78" width="11.5546875" customWidth="1"/>
     <col min="83" max="83" width="11.5546875" customWidth="1"/>
     <col min="88" max="88" width="11.5546875" customWidth="1"/>
-    <col min="93" max="93" width="12" customWidth="1"/>
+    <col min="93" max="93" width="11.5546875" customWidth="1"/>
     <col min="98" max="98" width="12" customWidth="1"/>
+    <col min="103" max="103" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:101" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:106" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -1442,7 +1448,7 @@
         <v>3</v>
       </c>
       <c r="CO1" s="5" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CP1" t="s">
         <v>1</v>
@@ -1465,8 +1471,20 @@
       <c r="CW1" t="s">
         <v>3</v>
       </c>
+      <c r="CY1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="CZ1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DA1" t="s">
+        <v>2</v>
+      </c>
+      <c r="DB1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:101" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:106" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1666,55 +1684,67 @@
         <v>3.6608417034149099</v>
       </c>
       <c r="CE2" s="7">
+        <v>6.00210484117269E-3</v>
+      </c>
+      <c r="CF2" s="9">
+        <v>0.72487372159957797</v>
+      </c>
+      <c r="CG2" s="9">
+        <v>0.74475342035293501</v>
+      </c>
+      <c r="CH2" s="9">
+        <v>3.2261321544647199</v>
+      </c>
+      <c r="CJ2" s="7">
         <v>5.5195032618939798E-3</v>
       </c>
-      <c r="CF2" s="9">
+      <c r="CK2" s="9">
         <v>0.73920416831970204</v>
       </c>
-      <c r="CG2" s="9">
+      <c r="CL2" s="9">
         <v>1.1466205120086601</v>
       </c>
-      <c r="CH2" s="9">
+      <c r="CM2" s="9">
         <v>3.5057420730590798</v>
       </c>
-      <c r="CJ2" s="7">
+      <c r="CO2" s="7">
         <v>5.7874089106917303E-3</v>
       </c>
-      <c r="CK2" s="9">
+      <c r="CP2" s="9">
         <v>0.72544878721237105</v>
       </c>
-      <c r="CL2" s="9">
+      <c r="CQ2" s="9">
         <v>0.74500143527984597</v>
       </c>
-      <c r="CM2" s="9">
+      <c r="CR2" s="9">
         <v>3.2868504524230899</v>
       </c>
-      <c r="CO2" s="7">
+      <c r="CT2" s="7">
         <v>5.5175651796162102E-3</v>
       </c>
-      <c r="CP2" s="9">
+      <c r="CU2" s="9">
         <v>0.73923951387405396</v>
       </c>
-      <c r="CQ2" s="9">
+      <c r="CV2" s="9">
         <v>1.1465421915054299</v>
       </c>
-      <c r="CR2" s="9">
+      <c r="CW2" s="9">
         <v>3.5050346851348801</v>
       </c>
-      <c r="CT2" s="7">
+      <c r="CY2" s="7">
         <v>5.6341243907809197E-3</v>
       </c>
-      <c r="CU2" s="9">
+      <c r="CZ2" s="9">
         <v>0.73697149753570501</v>
       </c>
-      <c r="CV2" s="9">
+      <c r="DA2" s="9">
         <v>1.08271849155426</v>
       </c>
-      <c r="CW2" s="9">
+      <c r="DB2" s="9">
         <v>3.4180641174316402</v>
       </c>
     </row>
-    <row r="3" spans="1:101" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:106" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1914,55 +1944,67 @@
         <v>3.6014447212219198</v>
       </c>
       <c r="CE3" s="6">
+        <v>6.0152681544423103E-3</v>
+      </c>
+      <c r="CF3" s="8">
+        <v>0.71598154306411699</v>
+      </c>
+      <c r="CG3" s="8">
+        <v>0.49389982223510698</v>
+      </c>
+      <c r="CH3" s="8">
+        <v>3.0895187854766801</v>
+      </c>
+      <c r="CJ3" s="6">
         <v>5.5098114535212499E-3</v>
       </c>
-      <c r="CF3" s="8">
+      <c r="CK3" s="8">
         <v>0.73628830909729004</v>
       </c>
-      <c r="CG3" s="8">
+      <c r="CL3" s="8">
         <v>1.05838739871978</v>
       </c>
-      <c r="CH3" s="8">
+      <c r="CM3" s="8">
         <v>3.4456374645233101</v>
       </c>
-      <c r="CJ3" s="6">
+      <c r="CO3" s="6">
         <v>5.9349630028009397E-3</v>
       </c>
-      <c r="CK3" s="8">
+      <c r="CP3" s="8">
         <v>0.71249604225158603</v>
       </c>
-      <c r="CL3" s="8">
+      <c r="CQ3" s="8">
         <v>0.383206456899642</v>
       </c>
-      <c r="CM3" s="8">
+      <c r="CR3" s="8">
         <v>3.08203721046447</v>
       </c>
-      <c r="CO3" s="6">
+      <c r="CT3" s="6">
         <v>5.5333930067718003E-3</v>
       </c>
-      <c r="CP3" s="8">
+      <c r="CU3" s="8">
         <v>0.73484534025192205</v>
       </c>
-      <c r="CQ3" s="8">
+      <c r="CV3" s="8">
         <v>1.0198386907577499</v>
       </c>
-      <c r="CR3" s="8">
+      <c r="CW3" s="8">
         <v>3.4249272346496502</v>
       </c>
-      <c r="CT3" s="6">
+      <c r="CY3" s="6">
         <v>5.6358929723501197E-3</v>
       </c>
-      <c r="CU3" s="8">
+      <c r="CZ3" s="8">
         <v>0.73031264543533303</v>
       </c>
-      <c r="CV3" s="8">
+      <c r="DA3" s="8">
         <v>0.89974761009216297</v>
       </c>
-      <c r="CW3" s="8">
+      <c r="DB3" s="8">
         <v>3.3252964019775302</v>
       </c>
     </row>
-    <row r="4" spans="1:101" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:106" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -2162,55 +2204,67 @@
         <v>3.6916708946228001</v>
       </c>
       <c r="CE4" s="7">
+        <v>6.1907456256449197E-3</v>
+      </c>
+      <c r="CF4" s="9">
+        <v>0.72447514533996504</v>
+      </c>
+      <c r="CG4" s="9">
+        <v>0.70254278182983398</v>
+      </c>
+      <c r="CH4" s="9">
+        <v>3.22713303565979</v>
+      </c>
+      <c r="CJ4" s="7">
         <v>5.7567334733903399E-3</v>
       </c>
-      <c r="CF4" s="9">
+      <c r="CK4" s="9">
         <v>0.73892933130264205</v>
       </c>
-      <c r="CG4" s="9">
+      <c r="CL4" s="9">
         <v>1.1157531738281199</v>
       </c>
-      <c r="CH4" s="9">
+      <c r="CM4" s="9">
         <v>3.5186417102813698</v>
       </c>
-      <c r="CJ4" s="7">
+      <c r="CO4" s="7">
         <v>6.1285789124667601E-3</v>
       </c>
-      <c r="CK4" s="9">
+      <c r="CP4" s="9">
         <v>0.71599096059799106</v>
       </c>
-      <c r="CL4" s="9">
+      <c r="CQ4" s="9">
         <v>0.45174443721771201</v>
       </c>
-      <c r="CM4" s="9">
+      <c r="CR4" s="9">
         <v>3.1469364166259699</v>
       </c>
-      <c r="CO4" s="7">
+      <c r="CT4" s="7">
         <v>5.8239349164068699E-3</v>
       </c>
-      <c r="CP4" s="9">
+      <c r="CU4" s="9">
         <v>0.73659807443618697</v>
       </c>
-      <c r="CQ4" s="9">
+      <c r="CV4" s="9">
         <v>1.0424555540084799</v>
       </c>
-      <c r="CR4" s="9">
+      <c r="CW4" s="9">
         <v>3.4887671470642001</v>
       </c>
-      <c r="CT4" s="7">
+      <c r="CY4" s="7">
         <v>5.9267445467412402E-3</v>
       </c>
-      <c r="CU4" s="9">
+      <c r="CZ4" s="9">
         <v>0.73267048597335804</v>
       </c>
-      <c r="CV4" s="9">
+      <c r="DA4" s="9">
         <v>0.940743148326873</v>
       </c>
-      <c r="CW4" s="9">
+      <c r="DB4" s="9">
         <v>3.4126091003417902</v>
       </c>
     </row>
-    <row r="5" spans="1:101" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:106" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -2410,55 +2464,67 @@
         <v>3.7705934047698899</v>
       </c>
       <c r="CE5" s="6">
+        <v>6.1615090817212998E-3</v>
+      </c>
+      <c r="CF5" s="8">
+        <v>0.73161661624908403</v>
+      </c>
+      <c r="CG5" s="8">
+        <v>0.92391151189803999</v>
+      </c>
+      <c r="CH5" s="8">
+        <v>3.2931594848632799</v>
+      </c>
+      <c r="CJ5" s="6">
         <v>5.7582245208323002E-3</v>
       </c>
-      <c r="CF5" s="8">
+      <c r="CK5" s="8">
         <v>0.74675542116165095</v>
       </c>
-      <c r="CG5" s="8">
+      <c r="CL5" s="8">
         <v>1.33240842819213</v>
       </c>
-      <c r="CH5" s="8">
+      <c r="CM5" s="8">
         <v>3.56597900390625</v>
       </c>
-      <c r="CJ5" s="6">
+      <c r="CO5" s="6">
         <v>5.9482967481017104E-3</v>
       </c>
-      <c r="CK5" s="8">
+      <c r="CP5" s="8">
         <v>0.73995125293731601</v>
       </c>
-      <c r="CL5" s="8">
+      <c r="CQ5" s="8">
         <v>1.14019131660461</v>
       </c>
-      <c r="CM5" s="8">
+      <c r="CR5" s="8">
         <v>3.42330718040466</v>
       </c>
-      <c r="CO5" s="6">
+      <c r="CT5" s="6">
         <v>5.8101168833673E-3</v>
       </c>
-      <c r="CP5" s="8">
+      <c r="CU5" s="8">
         <v>0.74475622177124001</v>
       </c>
-      <c r="CQ5" s="8">
+      <c r="CV5" s="8">
         <v>1.26113545894622</v>
       </c>
-      <c r="CR5" s="8">
+      <c r="CW5" s="8">
         <v>3.5459022521972599</v>
       </c>
-      <c r="CT5" s="6">
+      <c r="CY5" s="6">
         <v>5.9122177772223897E-3</v>
       </c>
-      <c r="CU5" s="8">
+      <c r="CZ5" s="8">
         <v>0.73912596702575595</v>
       </c>
-      <c r="CV5" s="8">
+      <c r="DA5" s="8">
         <v>1.11863505840301</v>
       </c>
-      <c r="CW5" s="8">
+      <c r="DB5" s="8">
         <v>3.4368250370025599</v>
       </c>
     </row>
-    <row r="6" spans="1:101" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:106" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -2658,55 +2724,67 @@
         <v>3.9069173336028999</v>
       </c>
       <c r="CE6" s="7">
+        <v>5.7873120531439703E-3</v>
+      </c>
+      <c r="CF6" s="9">
+        <v>0.73193860054016102</v>
+      </c>
+      <c r="CG6" s="9">
+        <v>1.0904470682144101</v>
+      </c>
+      <c r="CH6" s="9">
+        <v>3.3952071666717498</v>
+      </c>
+      <c r="CJ6" s="7">
         <v>5.3219562396407101E-3</v>
       </c>
-      <c r="CF6" s="9">
+      <c r="CK6" s="9">
         <v>0.74557358026504505</v>
       </c>
-      <c r="CG6" s="9">
+      <c r="CL6" s="9">
         <v>1.4875079393386801</v>
       </c>
-      <c r="CH6" s="9">
+      <c r="CM6" s="9">
         <v>3.71412849426269</v>
       </c>
-      <c r="CJ6" s="7">
+      <c r="CO6" s="7">
         <v>5.8297389186918701E-3</v>
       </c>
-      <c r="CK6" s="9">
+      <c r="CP6" s="9">
         <v>0.71847170591354304</v>
       </c>
-      <c r="CL6" s="9">
+      <c r="CQ6" s="9">
         <v>0.63307553529739302</v>
       </c>
-      <c r="CM6" s="9">
+      <c r="CR6" s="9">
         <v>3.23135042190551</v>
       </c>
-      <c r="CO6" s="7">
+      <c r="CT6" s="7">
         <v>5.2898605354130199E-3</v>
       </c>
-      <c r="CP6" s="9">
+      <c r="CU6" s="9">
         <v>0.74535846710205</v>
       </c>
-      <c r="CQ6" s="9">
+      <c r="CV6" s="9">
         <v>1.47812092304229</v>
       </c>
-      <c r="CR6" s="9">
+      <c r="CW6" s="9">
         <v>3.74267530441284</v>
       </c>
-      <c r="CT6" s="7">
+      <c r="CY6" s="7">
         <v>5.4382509551942296E-3</v>
       </c>
-      <c r="CU6" s="9">
+      <c r="CZ6" s="9">
         <v>0.73800224065780595</v>
       </c>
-      <c r="CV6" s="9">
+      <c r="DA6" s="9">
         <v>1.27579057216644</v>
       </c>
-      <c r="CW6" s="9">
+      <c r="DB6" s="9">
         <v>3.5684456825256299</v>
       </c>
     </row>
-    <row r="7" spans="1:101" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:106" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -2906,55 +2984,67 @@
         <v>4.0931110382079998</v>
       </c>
       <c r="CE7" s="6">
+        <v>5.7859802618622702E-3</v>
+      </c>
+      <c r="CF7" s="8">
+        <v>0.74502635002136197</v>
+      </c>
+      <c r="CG7" s="8">
+        <v>1.5725194215774501</v>
+      </c>
+      <c r="CH7" s="8">
+        <v>3.52650690078735</v>
+      </c>
+      <c r="CJ7" s="6">
         <v>5.3179394453763901E-3</v>
       </c>
-      <c r="CF7" s="8">
+      <c r="CK7" s="8">
         <v>0.75632143020629805</v>
       </c>
-      <c r="CG7" s="8">
+      <c r="CL7" s="8">
         <v>1.8501180410385101</v>
       </c>
-      <c r="CH7" s="8">
+      <c r="CM7" s="8">
         <v>3.8331098556518501</v>
       </c>
-      <c r="CJ7" s="6">
+      <c r="CO7" s="6">
         <v>5.5095483548939202E-3</v>
       </c>
-      <c r="CK7" s="8">
+      <c r="CP7" s="8">
         <v>0.74814927577972401</v>
       </c>
-      <c r="CL7" s="8">
+      <c r="CQ7" s="8">
         <v>1.59983086585998</v>
       </c>
-      <c r="CM7" s="8">
+      <c r="CR7" s="8">
         <v>3.67455577850341</v>
       </c>
-      <c r="CO7" s="6">
+      <c r="CT7" s="6">
         <v>5.2870525978505603E-3</v>
       </c>
-      <c r="CP7" s="8">
+      <c r="CU7" s="8">
         <v>0.75698626041412298</v>
       </c>
-      <c r="CQ7" s="8">
+      <c r="CV7" s="8">
         <v>1.88529181480407</v>
       </c>
-      <c r="CR7" s="8">
+      <c r="CW7" s="8">
         <v>3.8708021640777499</v>
       </c>
-      <c r="CT7" s="6">
+      <c r="CY7" s="6">
         <v>5.4755075834691498E-3</v>
       </c>
-      <c r="CU7" s="8">
+      <c r="CZ7" s="8">
         <v>0.746931612491607</v>
       </c>
-      <c r="CV7" s="8">
+      <c r="DA7" s="8">
         <v>1.58052694797515</v>
       </c>
-      <c r="CW7" s="8">
+      <c r="DB7" s="8">
         <v>3.6442124843597399</v>
       </c>
     </row>
-    <row r="8" spans="1:101" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:106" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -3154,55 +3244,67 @@
         <v>1.7826511859893699</v>
       </c>
       <c r="CE8" s="7">
+        <v>8.5622388869524002E-3</v>
+      </c>
+      <c r="CF8" s="9">
+        <v>0.57382237911224299</v>
+      </c>
+      <c r="CG8" s="9">
+        <v>-3.0864694118499698</v>
+      </c>
+      <c r="CH8" s="9">
+        <v>1.6704854965209901</v>
+      </c>
+      <c r="CJ8" s="7">
         <v>8.0910660326480796E-3</v>
       </c>
-      <c r="CF8" s="9">
+      <c r="CK8" s="9">
         <v>0.595162153244018</v>
       </c>
-      <c r="CG8" s="9">
+      <c r="CL8" s="9">
         <v>-2.5765712261199898</v>
       </c>
-      <c r="CH8" s="9">
+      <c r="CM8" s="9">
         <v>1.86419749259948</v>
       </c>
-      <c r="CJ8" s="7">
+      <c r="CO8" s="7">
         <v>8.3531960844993505E-3</v>
       </c>
-      <c r="CK8" s="9">
+      <c r="CP8" s="9">
         <v>0.58018201589584295</v>
       </c>
-      <c r="CL8" s="9">
+      <c r="CQ8" s="9">
         <v>-2.9389805793762198</v>
       </c>
-      <c r="CM8" s="9">
+      <c r="CR8" s="9">
         <v>1.7230908870696999</v>
       </c>
-      <c r="CO8" s="7">
+      <c r="CT8" s="7">
         <v>8.0294096842408094E-3</v>
       </c>
-      <c r="CP8" s="9">
+      <c r="CU8" s="9">
         <v>0.59669864177703802</v>
       </c>
-      <c r="CQ8" s="9">
+      <c r="CV8" s="9">
         <v>-2.5396049022674498</v>
       </c>
-      <c r="CR8" s="9">
+      <c r="CW8" s="9">
         <v>1.89063715934753</v>
       </c>
-      <c r="CT8" s="7">
+      <c r="CY8" s="7">
         <v>8.1240655854344299E-3</v>
       </c>
-      <c r="CU8" s="9">
+      <c r="CZ8" s="9">
         <v>0.59231859445571899</v>
       </c>
-      <c r="CV8" s="9">
+      <c r="DA8" s="9">
         <v>-2.64544224739074</v>
       </c>
-      <c r="CW8" s="9">
+      <c r="DB8" s="9">
         <v>1.8558033704757599</v>
       </c>
     </row>
-    <row r="9" spans="1:101" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:106" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -3402,55 +3504,67 @@
         <v>2.02369213104248</v>
       </c>
       <c r="CE9" s="6">
+        <v>8.17096047103405E-3</v>
+      </c>
+      <c r="CF9" s="8">
+        <v>0.605174601078033</v>
+      </c>
+      <c r="CG9" s="8">
+        <v>-2.3220198154449401</v>
+      </c>
+      <c r="CH9" s="8">
+        <v>1.8025487661361601</v>
+      </c>
+      <c r="CJ9" s="6">
         <v>7.7205304987728596E-3</v>
       </c>
-      <c r="CF9" s="8">
+      <c r="CK9" s="8">
         <v>0.62019783258438099</v>
       </c>
-      <c r="CG9" s="8">
+      <c r="CL9" s="8">
         <v>-1.9467855691909699</v>
       </c>
-      <c r="CH9" s="8">
+      <c r="CM9" s="8">
         <v>2.0219061374664302</v>
       </c>
-      <c r="CJ9" s="6">
+      <c r="CO9" s="6">
         <v>8.1054205074906297E-3</v>
       </c>
-      <c r="CK9" s="8">
+      <c r="CP9" s="8">
         <v>0.59538275003433205</v>
       </c>
-      <c r="CL9" s="8">
+      <c r="CQ9" s="8">
         <v>-2.5750257968902499</v>
       </c>
-      <c r="CM9" s="8">
+      <c r="CR9" s="8">
         <v>1.75668013095855</v>
       </c>
-      <c r="CO9" s="6">
+      <c r="CT9" s="6">
         <v>7.6829208992421601E-3</v>
       </c>
-      <c r="CP9" s="8">
+      <c r="CU9" s="8">
         <v>0.62117803096771196</v>
       </c>
-      <c r="CQ9" s="8">
+      <c r="CV9" s="8">
         <v>-1.92000579833984</v>
       </c>
-      <c r="CR9" s="8">
+      <c r="CW9" s="8">
         <v>2.0180735588073699</v>
       </c>
-      <c r="CT9" s="6">
+      <c r="CY9" s="6">
         <v>7.7943047508597296E-3</v>
       </c>
-      <c r="CU9" s="8">
+      <c r="CZ9" s="8">
         <v>0.611968994140625</v>
       </c>
-      <c r="CV9" s="8">
+      <c r="DA9" s="8">
         <v>-2.15338683128356</v>
       </c>
-      <c r="CW9" s="8">
+      <c r="DB9" s="8">
         <v>1.9523164033889699</v>
       </c>
     </row>
-    <row r="10" spans="1:101" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:106" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -3650,55 +3764,67 @@
         <v>1.9661773443221999</v>
       </c>
       <c r="CE10" s="7">
+        <v>8.5189305245876295E-3</v>
+      </c>
+      <c r="CF10" s="9">
+        <v>0.61294293403625399</v>
+      </c>
+      <c r="CG10" s="9">
+        <v>-2.13126492500305</v>
+      </c>
+      <c r="CH10" s="9">
+        <v>1.83075010776519</v>
+      </c>
+      <c r="CJ10" s="7">
         <v>8.0237649381160701E-3</v>
       </c>
-      <c r="CF10" s="9">
+      <c r="CK10" s="9">
         <v>0.62926226854324296</v>
       </c>
-      <c r="CG10" s="9">
+      <c r="CL10" s="9">
         <v>-1.73233377933502</v>
       </c>
-      <c r="CH10" s="9">
+      <c r="CM10" s="9">
         <v>2.0185446739196702</v>
       </c>
-      <c r="CJ10" s="7">
+      <c r="CO10" s="7">
         <v>8.1415865570306709E-3</v>
       </c>
-      <c r="CK10" s="9">
+      <c r="CP10" s="9">
         <v>0.61752545833587602</v>
       </c>
-      <c r="CL10" s="9">
+      <c r="CQ10" s="9">
         <v>-2.0289375782012899</v>
       </c>
-      <c r="CM10" s="9">
+      <c r="CR10" s="9">
         <v>1.90998876094818</v>
       </c>
-      <c r="CO10" s="7">
+      <c r="CT10" s="7">
         <v>7.9609667882323196E-3</v>
       </c>
-      <c r="CP10" s="9">
+      <c r="CU10" s="9">
         <v>0.63248217105865401</v>
       </c>
-      <c r="CQ10" s="9">
+      <c r="CV10" s="9">
         <v>-1.6511380672454801</v>
       </c>
-      <c r="CR10" s="9">
+      <c r="CW10" s="9">
         <v>2.05690097808837</v>
       </c>
-      <c r="CT10" s="7">
+      <c r="CY10" s="7">
         <v>8.1317853182554193E-3</v>
       </c>
-      <c r="CU10" s="9">
+      <c r="CZ10" s="9">
         <v>0.62616407871246305</v>
       </c>
-      <c r="CV10" s="9">
+      <c r="DA10" s="9">
         <v>-1.80817794799804</v>
       </c>
-      <c r="CW10" s="9">
+      <c r="DB10" s="9">
         <v>1.94957280158996</v>
       </c>
     </row>
-    <row r="11" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:106" x14ac:dyDescent="0.25">
       <c r="C11" s="5"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -3763,8 +3889,12 @@
       <c r="CU11" s="4"/>
       <c r="CV11" s="4"/>
       <c r="CW11" s="4"/>
+      <c r="CY11" s="5"/>
+      <c r="CZ11" s="4"/>
+      <c r="DA11" s="4"/>
+      <c r="DB11" s="4"/>
     </row>
-    <row r="12" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:106" x14ac:dyDescent="0.25">
       <c r="C12" s="5">
         <f t="shared" ref="C12:F12" si="0">AVERAGE(C2:C7)</f>
         <v>5.742549999999999E-3</v>
@@ -4034,84 +4164,100 @@
       </c>
       <c r="CE12" s="5">
         <f t="shared" ref="CE12:CH12" si="14">AVERAGE(CE2:CE7)</f>
-        <v>5.5306947324424947E-3</v>
+        <v>5.990486669664577E-3</v>
       </c>
       <c r="CF12" s="4">
         <f t="shared" si="14"/>
-        <v>0.74384537339210466</v>
+        <v>0.7289853294690446</v>
       </c>
       <c r="CG12" s="4">
         <f t="shared" si="14"/>
-        <v>1.3317992488543133</v>
+        <v>0.92134567101796261</v>
       </c>
       <c r="CH12" s="4">
         <f t="shared" si="14"/>
-        <v>3.5972064336140916</v>
+        <v>3.292942921320595</v>
       </c>
       <c r="CJ12" s="5">
         <f t="shared" ref="CJ12:CM12" si="15">AVERAGE(CJ2:CJ7)</f>
-        <v>5.8564224746078218E-3</v>
+        <v>5.5306947324424947E-3</v>
       </c>
       <c r="CK12" s="4">
         <f t="shared" si="15"/>
-        <v>0.7267513374487552</v>
+        <v>0.74384537339210466</v>
       </c>
       <c r="CL12" s="4">
         <f t="shared" si="15"/>
-        <v>0.82550834119319705</v>
+        <v>1.3317992488543133</v>
       </c>
       <c r="CM12" s="4">
         <f t="shared" si="15"/>
-        <v>3.3075062433878517</v>
+        <v>3.5972064336140916</v>
       </c>
       <c r="CO12" s="5">
         <f t="shared" ref="CO12:CR12" si="16">AVERAGE(CO2:CO7)</f>
-        <v>5.5436538532376263E-3</v>
+        <v>5.8564224746078218E-3</v>
       </c>
       <c r="CP12" s="4">
         <f t="shared" si="16"/>
-        <v>0.74296397964159588</v>
+        <v>0.7267513374487552</v>
       </c>
       <c r="CQ12" s="4">
         <f t="shared" si="16"/>
-        <v>1.3055641055107066</v>
+        <v>0.82550834119319705</v>
       </c>
       <c r="CR12" s="4">
         <f t="shared" si="16"/>
-        <v>3.5963514645894299</v>
+        <v>3.3075062433878517</v>
       </c>
       <c r="CT12" s="5">
         <f t="shared" ref="CT12:CW12" si="17">AVERAGE(CT2:CT7)</f>
-        <v>5.6704563709596744E-3</v>
+        <v>5.5436538532376263E-3</v>
       </c>
       <c r="CU12" s="4">
         <f t="shared" si="17"/>
-        <v>0.73733574151992753</v>
+        <v>0.74296397964159588</v>
       </c>
       <c r="CV12" s="4">
         <f t="shared" si="17"/>
-        <v>1.1496936380863161</v>
+        <v>1.3055641055107066</v>
       </c>
       <c r="CW12" s="4">
         <f t="shared" si="17"/>
+        <v>3.5963514645894299</v>
+      </c>
+      <c r="CY12" s="5">
+        <f t="shared" ref="CY12:DB12" si="18">AVERAGE(CY2:CY7)</f>
+        <v>5.6704563709596744E-3</v>
+      </c>
+      <c r="CZ12" s="4">
+        <f t="shared" si="18"/>
+        <v>0.73733574151992753</v>
+      </c>
+      <c r="DA12" s="4">
+        <f t="shared" si="18"/>
+        <v>1.1496936380863161</v>
+      </c>
+      <c r="DB12" s="4">
+        <f t="shared" si="18"/>
         <v>3.4675754706064819</v>
       </c>
     </row>
-    <row r="13" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:106" x14ac:dyDescent="0.25">
       <c r="C13" s="5">
-        <f t="shared" ref="C13:F13" si="18">AVERAGE(C8:C10)</f>
+        <f t="shared" ref="C13:F13" si="19">AVERAGE(C8:C10)</f>
         <v>8.0794000000000005E-3</v>
       </c>
       <c r="D13" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.59776666666666667</v>
       </c>
       <c r="E13" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>-2.5043000000000002</v>
       </c>
       <c r="F13" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.793033333333333</v>
       </c>
       <c r="G13" s="5"/>
@@ -4150,151 +4296,151 @@
       </c>
       <c r="Q13" s="5"/>
       <c r="R13" s="5">
-        <f t="shared" ref="R13:U13" si="19">AVERAGE(R8:R10)</f>
+        <f t="shared" ref="R13:U13" si="20">AVERAGE(R8:R10)</f>
         <v>7.7599000000000001E-3</v>
       </c>
       <c r="S13" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.61806666666666665</v>
       </c>
       <c r="T13" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-2.0072333333333332</v>
       </c>
       <c r="U13" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>2.0398666666666667</v>
       </c>
       <c r="V13" s="5"/>
       <c r="W13" s="5">
-        <f t="shared" ref="W13:Z13" si="20">AVERAGE(W8:W10)</f>
+        <f t="shared" ref="W13:Z13" si="21">AVERAGE(W8:W10)</f>
         <v>7.5505333333333339E-3</v>
       </c>
       <c r="X13" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.62583333333333335</v>
       </c>
       <c r="Y13" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-1.8101333333333331</v>
       </c>
       <c r="Z13" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2.1382333333333334</v>
       </c>
       <c r="AA13" s="5"/>
       <c r="AB13" s="5">
-        <f t="shared" ref="AB13:AE13" si="21">AVERAGE(AB8:AB10)</f>
+        <f t="shared" ref="AB13:AE13" si="22">AVERAGE(AB8:AB10)</f>
         <v>7.1539333333333335E-3</v>
       </c>
       <c r="AC13" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.64409999999999989</v>
       </c>
       <c r="AD13" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>-1.3577333333333332</v>
       </c>
       <c r="AE13" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>2.3886999999999996</v>
       </c>
       <c r="AF13" s="5"/>
       <c r="AG13" s="5">
-        <f t="shared" ref="AG13:AJ13" si="22">AVERAGE(AG8:AG10)</f>
+        <f t="shared" ref="AG13:AJ13" si="23">AVERAGE(AG8:AG10)</f>
         <v>7.6274150051176505E-3</v>
       </c>
       <c r="AH13" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.62386037906010905</v>
       </c>
       <c r="AI13" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-1.8603182633717765</v>
       </c>
       <c r="AJ13" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>2.1144233942031803</v>
       </c>
       <c r="AK13" s="4"/>
       <c r="AL13" s="5">
-        <f t="shared" ref="AL13:AO13" si="23">AVERAGE(AL8:AL10)</f>
+        <f t="shared" ref="AL13:AO13" si="24">AVERAGE(AL8:AL10)</f>
         <v>7.2265666666666666E-3</v>
       </c>
       <c r="AM13" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.64180000000000004</v>
       </c>
       <c r="AN13" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>-1.4112666666666669</v>
       </c>
       <c r="AO13" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>2.3395333333333332</v>
       </c>
       <c r="AP13" s="4"/>
       <c r="AQ13" s="5">
-        <f t="shared" ref="AQ13:AT13" si="24">AVERAGE(AQ8:AQ10)</f>
+        <f t="shared" ref="AQ13:AT13" si="25">AVERAGE(AQ8:AQ10)</f>
         <v>7.9079995242257867E-3</v>
       </c>
       <c r="AR13" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.61222662528355876</v>
       </c>
       <c r="AS13" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-2.147606849670407</v>
       </c>
       <c r="AT13" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1.94546516736348</v>
       </c>
       <c r="AU13" s="4"/>
       <c r="AV13" s="5">
-        <f t="shared" ref="AV13:AY13" si="25">AVERAGE(AV8:AV10)</f>
+        <f t="shared" ref="AV13:AY13" si="26">AVERAGE(AV8:AV10)</f>
         <v>7.1464666666666669E-3</v>
       </c>
       <c r="AW13" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.64676666666666671</v>
       </c>
       <c r="AX13" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>-1.2865333333333333</v>
       </c>
       <c r="AY13" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>2.4087333333333336</v>
       </c>
       <c r="AZ13" s="4"/>
       <c r="BA13" s="5">
-        <f t="shared" ref="BA13:BD13" si="26">AVERAGE(BA8:BA10)</f>
+        <f t="shared" ref="BA13:BD13" si="27">AVERAGE(BA8:BA10)</f>
         <v>7.8640660891930187E-3</v>
       </c>
       <c r="BB13" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.61406228939692131</v>
       </c>
       <c r="BC13" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>-2.1024912198384533</v>
       </c>
       <c r="BD13" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1.9721291859944599</v>
       </c>
       <c r="BE13" s="4"/>
       <c r="BF13" s="5">
-        <f t="shared" ref="BF13:BH13" si="27">AVERAGE(BF8:BF10)</f>
+        <f t="shared" ref="BF13:BH13" si="28">AVERAGE(BF8:BF10)</f>
         <v>8.2188351079821569E-3</v>
       </c>
       <c r="BG13" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.60426817337671868</v>
       </c>
       <c r="BH13" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>-2.3408822615941336</v>
       </c>
       <c r="BI13" s="4">
@@ -4302,194 +4448,213 @@
         <v>1.8366017738978033</v>
       </c>
       <c r="BK13" s="5">
-        <f t="shared" ref="BK13:BN13" si="28">AVERAGE(BK8:BK10)</f>
+        <f t="shared" ref="BK13:BN13" si="29">AVERAGE(BK8:BK10)</f>
         <v>7.608370700230193E-3</v>
       </c>
       <c r="BL13" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.62967761357625274</v>
       </c>
       <c r="BM13" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-1.7207729816436732</v>
       </c>
       <c r="BN13" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>2.2107737064361532</v>
       </c>
       <c r="BP13" s="5">
-        <f t="shared" ref="BP13:BS13" si="29">AVERAGE(BP8:BP10)</f>
+        <f t="shared" ref="BP13:BS13" si="30">AVERAGE(BP8:BP10)</f>
         <v>7.7827027998864625E-3</v>
       </c>
       <c r="BQ13" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.61970220009485832</v>
       </c>
       <c r="BR13" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>-1.9655180772145566</v>
       </c>
       <c r="BS13" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2.0745855967203735</v>
       </c>
       <c r="BU13" s="5">
-        <f t="shared" ref="BU13:BX13" si="30">AVERAGE(BU8:BU10)</f>
+        <f t="shared" ref="BU13:BX13" si="31">AVERAGE(BU8:BU10)</f>
         <v>7.7665367474158559E-3</v>
       </c>
       <c r="BV13" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0.62606883049011197</v>
       </c>
       <c r="BW13" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>-1.8065299590428632</v>
       </c>
       <c r="BX13" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>2.1323546568552598</v>
       </c>
       <c r="BZ13" s="5">
-        <f t="shared" ref="BZ13:CC13" si="31">AVERAGE(BZ8:BZ10)</f>
+        <f t="shared" ref="BZ13:CC13" si="32">AVERAGE(BZ8:BZ10)</f>
         <v>8.0044702626764722E-3</v>
       </c>
       <c r="CA13" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0.60746943950653032</v>
       </c>
       <c r="CB13" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>-2.2858473459879503</v>
       </c>
       <c r="CC13" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1.9241735537846834</v>
       </c>
       <c r="CE13" s="5">
-        <f t="shared" ref="CE13:CH13" si="32">AVERAGE(CE8:CE10)</f>
+        <f t="shared" ref="CE13:CH13" si="33">AVERAGE(CE8:CE10)</f>
+        <v>8.4173766275246944E-3</v>
+      </c>
+      <c r="CF13" s="4">
+        <f t="shared" si="33"/>
+        <v>0.5973133047421767</v>
+      </c>
+      <c r="CG13" s="4">
+        <f t="shared" si="33"/>
+        <v>-2.5132513840993198</v>
+      </c>
+      <c r="CH13" s="4">
+        <f t="shared" si="33"/>
+        <v>1.7679281234741133</v>
+      </c>
+      <c r="CJ13" s="5">
+        <f t="shared" ref="CJ13:CM13" si="34">AVERAGE(CJ8:CJ10)</f>
         <v>7.9451204898456692E-3</v>
       </c>
-      <c r="CF13" s="4">
-        <f t="shared" si="32"/>
+      <c r="CK13" s="4">
+        <f t="shared" si="34"/>
         <v>0.61487408479054728</v>
       </c>
-      <c r="CG13" s="4">
-        <f t="shared" si="32"/>
+      <c r="CL13" s="4">
+        <f t="shared" si="34"/>
         <v>-2.0852301915486602</v>
       </c>
-      <c r="CH13" s="4">
-        <f t="shared" si="32"/>
+      <c r="CM13" s="4">
+        <f t="shared" si="34"/>
         <v>1.9682161013285266</v>
       </c>
-      <c r="CJ13" s="5">
-        <f t="shared" ref="CJ13:CM13" si="33">AVERAGE(CJ8:CJ10)</f>
+      <c r="CO13" s="5">
+        <f t="shared" ref="CO13:CR13" si="35">AVERAGE(CO8:CO10)</f>
         <v>8.2000677163402164E-3</v>
       </c>
-      <c r="CK13" s="4">
-        <f t="shared" si="33"/>
+      <c r="CP13" s="4">
+        <f t="shared" si="35"/>
         <v>0.59769674142201701</v>
       </c>
-      <c r="CL13" s="4">
-        <f t="shared" si="33"/>
+      <c r="CQ13" s="4">
+        <f t="shared" si="35"/>
         <v>-2.5143146514892529</v>
       </c>
-      <c r="CM13" s="4">
-        <f t="shared" si="33"/>
+      <c r="CR13" s="4">
+        <f t="shared" si="35"/>
         <v>1.7965865929921432</v>
       </c>
-      <c r="CO13" s="5">
-        <f t="shared" ref="CO13:CR13" si="34">AVERAGE(CO8:CO10)</f>
+      <c r="CT13" s="5">
+        <f t="shared" ref="CT13:CW13" si="36">AVERAGE(CT8:CT10)</f>
         <v>7.8910991239050966E-3</v>
       </c>
-      <c r="CP13" s="4">
-        <f t="shared" si="34"/>
+      <c r="CU13" s="4">
+        <f t="shared" si="36"/>
         <v>0.61678628126780133</v>
       </c>
-      <c r="CQ13" s="4">
-        <f t="shared" si="34"/>
+      <c r="CV13" s="4">
+        <f t="shared" si="36"/>
         <v>-2.0369162559509233</v>
       </c>
-      <c r="CR13" s="4">
-        <f t="shared" si="34"/>
+      <c r="CW13" s="4">
+        <f t="shared" si="36"/>
         <v>1.9885372320810901</v>
       </c>
-      <c r="CT13" s="5">
-        <f t="shared" ref="CT13:CW13" si="35">AVERAGE(CT8:CT10)</f>
+      <c r="CY13" s="5">
+        <f t="shared" ref="CY13:DB13" si="37">AVERAGE(CY8:CY10)</f>
         <v>8.016718551516526E-3</v>
       </c>
-      <c r="CU13" s="4">
-        <f t="shared" si="35"/>
+      <c r="CZ13" s="4">
+        <f t="shared" si="37"/>
         <v>0.61015055576960231</v>
       </c>
-      <c r="CV13" s="4">
-        <f t="shared" si="35"/>
+      <c r="DA13" s="4">
+        <f t="shared" si="37"/>
         <v>-2.2023356755574466</v>
       </c>
-      <c r="CW13" s="4">
-        <f t="shared" si="35"/>
+      <c r="DB13" s="4">
+        <f t="shared" si="37"/>
         <v>1.9192308584848969</v>
       </c>
     </row>
-    <row r="14" spans="1:101" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:106" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C14" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="M14" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="R14" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H14" s="10" t="s">
+      <c r="W14" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB14" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG14" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="M14" s="10" t="s">
+      <c r="AL14" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AQ14" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AV14" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="BA14" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="BF14" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="BK14" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="BP14" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="BU14" t="s">
+        <v>33</v>
+      </c>
+      <c r="BZ14" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="CE14" t="s">
+        <v>34</v>
+      </c>
+      <c r="CJ14" t="s">
+        <v>26</v>
+      </c>
+      <c r="CO14" t="s">
+        <v>28</v>
+      </c>
+      <c r="CT14" t="s">
+        <v>29</v>
+      </c>
+      <c r="CY14" t="s">
         <v>27</v>
-      </c>
-      <c r="R14" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="W14" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB14" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="AG14" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="AL14" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="AQ14" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="AV14" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="BA14" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="BF14" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="BK14" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="BP14" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="BU14" t="s">
-        <v>28</v>
-      </c>
-      <c r="BZ14" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="CE14" t="s">
-        <v>30</v>
-      </c>
-      <c r="CJ14" t="s">
-        <v>32</v>
-      </c>
-      <c r="CO14" t="s">
-        <v>33</v>
-      </c>
-      <c r="CT14" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/results/Known Number/results_known_number.xlsx
+++ b/results/Known Number/results_known_number.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\desk_others\contribute\AE unknown number separation SPL\Supplemental Materials\results\Known Number\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\desk_others\contribute\AE unknown number separation SPL\Supplemental Materials\code_results\results\Known Number\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{326FF829-577B-4817-93D9-BF47096A5AFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{809C33EB-6CC4-4704-9FE3-13B328B020ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3444" yWindow="1404" windowWidth="23040" windowHeight="11628" xr2:uid="{B3211CC7-A965-4961-BE1A-76E847C96973}"/>
+    <workbookView xWindow="-26295" yWindow="1815" windowWidth="25740" windowHeight="13500" xr2:uid="{B3211CC7-A965-4961-BE1A-76E847C96973}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -115,10 +115,6 @@
     <t>model_8_3_1_1e-3_ep50_GTX2080Ti6_20221220_ur200</t>
   </si>
   <si>
-    <t>model_13_3_1_lr1e-3_ep100_ur200_GTX2080Ti7_RTX6000_20230622  Z_4-6_GTX2080Ti7 Z7_RTX6000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>model_20_5_10_lr1e-4_ep400_2080Ti6_20230704</t>
   </si>
   <si>
@@ -150,6 +146,9 @@
   <si>
     <t>model_15_2_6_lr1e-3_ep200_tanh_noNL_RTX3090_20230916</t>
   </si>
+  <si>
+    <t>model_13_3_1_lr1e-3_ep300_2080Ti6_20240430</t>
+  </si>
 </sst>
 </file>
 
@@ -160,7 +159,7 @@
     <numFmt numFmtId="177" formatCode="0.0000"/>
     <numFmt numFmtId="178" formatCode="0.0000E+00"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -341,6 +340,13 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="35">
@@ -795,7 +801,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -831,6 +837,12 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="22" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="22" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1189,8 +1201,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68E766E7-25BF-4DC3-8B53-27B0AF24AE7A}">
   <dimension ref="A1:DB14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BP1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BZ14" sqref="BZ14"/>
+    <sheetView tabSelected="1" topLeftCell="AX1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="BH12" sqref="BH12:BI13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1623,17 +1635,17 @@
       <c r="BD2" s="9">
         <v>3.38788390159606</v>
       </c>
-      <c r="BF2" s="7">
-        <v>5.7102520950138499E-3</v>
-      </c>
-      <c r="BG2" s="9">
-        <v>0.73250085115432695</v>
-      </c>
-      <c r="BH2" s="9">
-        <v>0.94485634565353305</v>
-      </c>
-      <c r="BI2" s="9">
-        <v>3.3270373344421298</v>
+      <c r="BF2" s="12">
+        <v>4.8453500494360898E-3</v>
+      </c>
+      <c r="BG2" s="13">
+        <v>0.76571071147918701</v>
+      </c>
+      <c r="BH2" s="13">
+        <v>1.91854012012481</v>
+      </c>
+      <c r="BI2" s="13">
+        <v>4.0345716476440403</v>
       </c>
       <c r="BK2" s="7">
         <v>5.31914923340082E-3</v>
@@ -1884,16 +1896,16 @@
         <v>3.36776494979858</v>
       </c>
       <c r="BF3" s="6">
-        <v>5.8730803430080396E-3</v>
+        <v>4.8944219015538597E-3</v>
       </c>
       <c r="BG3" s="8">
-        <v>0.71838831901550204</v>
+        <v>0.75839370489120395</v>
       </c>
       <c r="BH3" s="8">
-        <v>0.58247905969619695</v>
+        <v>1.7165440320968599</v>
       </c>
       <c r="BI3" s="8">
-        <v>3.1216261386871298</v>
+        <v>3.8926594257354701</v>
       </c>
       <c r="BK3" s="6">
         <v>5.3219394758343697E-3</v>
@@ -2144,16 +2156,16 @@
         <v>3.5081498622894198</v>
       </c>
       <c r="BF4" s="7">
-        <v>5.8095790445804596E-3</v>
+        <v>5.1650004461407601E-3</v>
       </c>
       <c r="BG4" s="9">
-        <v>0.73147892951965299</v>
+        <v>0.76235479116439797</v>
       </c>
       <c r="BH4" s="9">
-        <v>0.92887407541275002</v>
+        <v>1.7833321094512899</v>
       </c>
       <c r="BI4" s="9">
-        <v>3.42538142204284</v>
+        <v>3.9301307201385498</v>
       </c>
       <c r="BK4" s="7">
         <v>5.3896480239927699E-3</v>
@@ -2404,16 +2416,16 @@
         <v>3.6164033412933301</v>
       </c>
       <c r="BF5" s="6">
-        <v>6.0005984269082503E-3</v>
+        <v>5.1110610365867597E-3</v>
       </c>
       <c r="BG5" s="8">
-        <v>0.73555356264114302</v>
+        <v>0.77026826143264704</v>
       </c>
       <c r="BH5" s="8">
-        <v>1.0407419204711901</v>
+        <v>2.0108397006988499</v>
       </c>
       <c r="BI5" s="8">
-        <v>3.3742172718047998</v>
+        <v>4.0277943611145002</v>
       </c>
       <c r="BK5" s="6">
         <v>5.3920350037515103E-3</v>
@@ -2664,16 +2676,16 @@
         <v>3.7389066219329798</v>
       </c>
       <c r="BF6" s="7">
-        <v>5.4075387306511402E-3</v>
+        <v>4.54193167388439E-3</v>
       </c>
       <c r="BG6" s="9">
-        <v>0.73762434720992998</v>
+        <v>0.77186399698257402</v>
       </c>
       <c r="BH6" s="9">
-        <v>1.2524687051773</v>
+        <v>2.3355793952941801</v>
       </c>
       <c r="BI6" s="9">
-        <v>3.5503878593444802</v>
+        <v>4.4158411026000897</v>
       </c>
       <c r="BK6" s="7">
         <v>5.0748963840305797E-3</v>
@@ -2924,16 +2936,16 @@
         <v>3.9151465892791699</v>
       </c>
       <c r="BF7" s="6">
-        <v>5.3702588193118503E-3</v>
+        <v>4.5466427691280798E-3</v>
       </c>
       <c r="BG7" s="8">
-        <v>0.75681716203689497</v>
+        <v>0.78389561176300004</v>
       </c>
       <c r="BH7" s="8">
-        <v>1.88133645057678</v>
+        <v>2.73815441131591</v>
       </c>
       <c r="BI7" s="8">
-        <v>3.74013352394104</v>
+        <v>4.5856542587280202</v>
       </c>
       <c r="BK7" s="6">
         <v>5.0713922828435898E-3</v>
@@ -3184,16 +3196,16 @@
         <v>1.8168301582336399</v>
       </c>
       <c r="BF8" s="7">
-        <v>8.4663787856698001E-3</v>
+        <v>7.3956199921667498E-3</v>
       </c>
       <c r="BG8" s="9">
-        <v>0.57641351222991899</v>
+        <v>0.62689977884292603</v>
       </c>
       <c r="BH8" s="9">
-        <v>-3.0280776023864702</v>
+        <v>-1.8175415992736801</v>
       </c>
       <c r="BI8" s="9">
-        <v>1.6917154788970901</v>
+        <v>2.1936058998107901</v>
       </c>
       <c r="BK8" s="7">
         <v>7.8089837916195297E-3</v>
@@ -3444,16 +3456,16 @@
         <v>1.9879925251007</v>
       </c>
       <c r="BF9" s="6">
-        <v>7.9903509467840195E-3</v>
+        <v>6.7749423906206998E-3</v>
       </c>
       <c r="BG9" s="8">
-        <v>0.61158365011215199</v>
+        <v>0.65076559782028198</v>
       </c>
       <c r="BH9" s="8">
-        <v>-2.15916776657104</v>
+        <v>-1.14425504207611</v>
       </c>
       <c r="BI9" s="8">
-        <v>1.89134001731872</v>
+        <v>2.4851877689361501</v>
       </c>
       <c r="BK9" s="6">
         <v>7.3530664667487101E-3</v>
@@ -3704,16 +3716,16 @@
         <v>2.1115648746490399</v>
       </c>
       <c r="BF10" s="7">
-        <v>8.1997755914926494E-3</v>
+        <v>7.2098122909665099E-3</v>
       </c>
       <c r="BG10" s="9">
-        <v>0.62480735778808505</v>
+        <v>0.65893441438674905</v>
       </c>
       <c r="BH10" s="9">
-        <v>-1.8354014158248899</v>
+        <v>-0.98290163278579701</v>
       </c>
       <c r="BI10" s="9">
-        <v>1.9267498254776001</v>
+        <v>2.4970710277557302</v>
       </c>
       <c r="BK10" s="7">
         <v>7.66306184232234E-3</v>
@@ -4084,19 +4096,19 @@
       <c r="BE12" s="4"/>
       <c r="BF12" s="5">
         <f t="shared" ref="BF12:BH12" si="9">AVERAGE(BF2:BF7)</f>
-        <v>5.695217909912266E-3</v>
+        <v>4.8507346461216568E-3</v>
       </c>
       <c r="BG12" s="4">
         <f t="shared" si="9"/>
-        <v>0.73539386192957501</v>
+        <v>0.76874784628550163</v>
       </c>
       <c r="BH12" s="4">
         <f t="shared" si="9"/>
-        <v>1.1051260928312916</v>
+        <v>2.0838316281636495</v>
       </c>
       <c r="BI12" s="4">
         <f>AVERAGE(BI2:BI7)</f>
-        <v>3.4231305917104033</v>
+        <v>4.1477752526601117</v>
       </c>
       <c r="BK12" s="5">
         <f t="shared" ref="BK12:BN12" si="10">AVERAGE(BK2:BK7)</f>
@@ -4433,19 +4445,19 @@
       <c r="BE13" s="4"/>
       <c r="BF13" s="5">
         <f t="shared" ref="BF13:BH13" si="28">AVERAGE(BF8:BF10)</f>
-        <v>8.2188351079821569E-3</v>
+        <v>7.1267915579179865E-3</v>
       </c>
       <c r="BG13" s="4">
         <f t="shared" si="28"/>
-        <v>0.60426817337671868</v>
+        <v>0.64553326368331898</v>
       </c>
       <c r="BH13" s="4">
         <f t="shared" si="28"/>
-        <v>-2.3408822615941336</v>
+        <v>-1.3148994247118624</v>
       </c>
       <c r="BI13" s="4">
         <f>AVERAGE(BI8:BI10)</f>
-        <v>1.8366017738978033</v>
+        <v>2.3919548988342236</v>
       </c>
       <c r="BK13" s="5">
         <f t="shared" ref="BK13:BN13" si="29">AVERAGE(BK8:BK10)</f>
@@ -4626,35 +4638,35 @@
       <c r="BA14" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="BF14" s="11" t="s">
+      <c r="BF14" t="s">
+        <v>34</v>
+      </c>
+      <c r="BK14" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="BP14" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="BU14" t="s">
+        <v>32</v>
+      </c>
+      <c r="BZ14" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="CE14" t="s">
+        <v>33</v>
+      </c>
+      <c r="CJ14" t="s">
         <v>25</v>
       </c>
-      <c r="BK14" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="BP14" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="BU14" t="s">
-        <v>33</v>
-      </c>
-      <c r="BZ14" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="CE14" t="s">
-        <v>34</v>
-      </c>
-      <c r="CJ14" t="s">
+      <c r="CO14" t="s">
+        <v>27</v>
+      </c>
+      <c r="CT14" t="s">
+        <v>28</v>
+      </c>
+      <c r="CY14" t="s">
         <v>26</v>
-      </c>
-      <c r="CO14" t="s">
-        <v>28</v>
-      </c>
-      <c r="CT14" t="s">
-        <v>29</v>
-      </c>
-      <c r="CY14" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
